--- a/data/M890081.xlsx
+++ b/data/M890081.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_32EADAD220707EF4257E2538CF35FCF24CB2B740" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="M890081" state="visible" r:id="rId4"/>
+    <sheet name="M890081" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1843,21 +1847,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,0.##########"/>
-    <numFmt numFmtId="165" formatCode="#,0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1877,10 +1882,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1897,7 +1910,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2238,9 +2251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:VE37"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="577" width="24" customWidth="1"/>
   </cols>
@@ -3978,32 +3996,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5773,7 +5791,7 @@
         <v>32.1</v>
       </c>
       <c r="K11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="L11" s="4">
         <v>31.2</v>
@@ -5788,7 +5806,7 @@
         <v>31.8</v>
       </c>
       <c r="P11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Q11" s="4">
         <v>31.7</v>
@@ -5809,7 +5827,7 @@
         <v>32.4</v>
       </c>
       <c r="W11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X11" s="4">
         <v>31.6</v>
@@ -5839,7 +5857,7 @@
         <v>31</v>
       </c>
       <c r="AG11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AH11" s="5">
         <v>33</v>
@@ -5857,16 +5875,16 @@
         <v>30.1</v>
       </c>
       <c r="AM11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AN11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AO11" s="5">
         <v>33</v>
       </c>
       <c r="AP11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AQ11" s="4">
         <v>32.1</v>
@@ -5875,16 +5893,16 @@
         <v>31.3</v>
       </c>
       <c r="AS11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AT11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AU11" s="4">
         <v>33.5</v>
       </c>
       <c r="AV11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AW11" s="4">
         <v>31.7</v>
@@ -5914,7 +5932,7 @@
         <v>32.4</v>
       </c>
       <c r="BF11" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="BG11" s="4">
         <v>32.4</v>
@@ -6004,7 +6022,7 @@
         <v>32.1</v>
       </c>
       <c r="CJ11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="CK11" s="4">
         <v>31.7</v>
@@ -6019,10 +6037,10 @@
         <v>32</v>
       </c>
       <c r="CO11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="CP11" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="CQ11" s="4">
         <v>32.5</v>
@@ -6061,7 +6079,7 @@
         <v>32.4</v>
       </c>
       <c r="DC11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="DD11" s="4">
         <v>31.9</v>
@@ -6199,10 +6217,10 @@
         <v>31.4</v>
       </c>
       <c r="EW11" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="EX11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="EY11" s="4">
         <v>33.1</v>
@@ -6235,16 +6253,16 @@
         <v>32.6</v>
       </c>
       <c r="FI11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="FJ11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="FK11" s="4">
         <v>31.4</v>
       </c>
       <c r="FL11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="FM11" s="4">
         <v>30.7</v>
@@ -6271,7 +6289,7 @@
         <v>31.4</v>
       </c>
       <c r="FU11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="FV11" s="4">
         <v>31.9</v>
@@ -6328,7 +6346,7 @@
         <v>31.4</v>
       </c>
       <c r="GN11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="GO11" s="4">
         <v>31.4</v>
@@ -6385,7 +6403,7 @@
         <v>33</v>
       </c>
       <c r="HG11" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="HH11" s="4">
         <v>33.4</v>
@@ -6415,13 +6433,13 @@
         <v>32.4</v>
       </c>
       <c r="HQ11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="HR11" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="HS11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="HT11" s="5">
         <v>32</v>
@@ -6448,16 +6466,16 @@
         <v>31.5</v>
       </c>
       <c r="IB11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="IC11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="ID11" s="4">
         <v>32.1</v>
       </c>
       <c r="IE11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="IF11" s="4">
         <v>30.8</v>
@@ -6517,13 +6535,13 @@
         <v>31.1</v>
       </c>
       <c r="IY11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="IZ11" s="4">
         <v>31.4</v>
       </c>
       <c r="JA11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="JB11" s="4">
         <v>31.8</v>
@@ -6559,7 +6577,7 @@
         <v>31.1</v>
       </c>
       <c r="JM11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="JN11" s="4">
         <v>31.9</v>
@@ -6655,7 +6673,7 @@
         <v>32.4</v>
       </c>
       <c r="KS11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="KT11" s="4">
         <v>32.6</v>
@@ -6664,7 +6682,7 @@
         <v>32.4</v>
       </c>
       <c r="KV11" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="KW11" s="4">
         <v>33.6</v>
@@ -6673,7 +6691,7 @@
         <v>32.5</v>
       </c>
       <c r="KY11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="KZ11" s="4">
         <v>31.9</v>
@@ -6736,10 +6754,10 @@
         <v>31.2</v>
       </c>
       <c r="LT11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="LU11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="LV11" s="5">
         <v>32</v>
@@ -6874,19 +6892,19 @@
         <v>31.3</v>
       </c>
       <c r="NN11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="NO11" s="4">
         <v>32.1</v>
       </c>
       <c r="NP11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="NQ11" s="4">
         <v>31.5</v>
       </c>
       <c r="NR11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="NS11" s="4">
         <v>32.4</v>
@@ -6919,13 +6937,13 @@
         <v>32.4</v>
       </c>
       <c r="OC11" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="OD11" s="4">
         <v>33.4</v>
       </c>
       <c r="OE11" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="OF11" s="4">
         <v>32.4</v>
@@ -7102,7 +7120,7 @@
         <v>31.8</v>
       </c>
       <c r="QL11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="QM11" s="4">
         <v>31.8</v>
@@ -7174,7 +7192,7 @@
         <v>32.5</v>
       </c>
       <c r="RJ11" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="RK11" s="4">
         <v>34.4</v>
@@ -7216,7 +7234,7 @@
         <v>31.7</v>
       </c>
       <c r="RX11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="RY11" s="4">
         <v>29.8</v>
@@ -7240,7 +7258,7 @@
         <v>31.1</v>
       </c>
       <c r="SF11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="SG11" s="4">
         <v>31.6</v>
@@ -7249,7 +7267,7 @@
         <v>31.7</v>
       </c>
       <c r="SI11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="SJ11" s="4">
         <v>31.2</v>
@@ -7285,7 +7303,7 @@
         <v>31.4</v>
       </c>
       <c r="SU11" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="SV11" s="4">
         <v>31.1</v>
@@ -7321,10 +7339,10 @@
         <v>31.1</v>
       </c>
       <c r="TG11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="TH11" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="TI11" s="4">
         <v>30.8</v>
@@ -7390,7 +7408,7 @@
         <v>32.4</v>
       </c>
       <c r="UD11" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="UE11" s="4">
         <v>31.2</v>
@@ -9212,7 +9230,7 @@
         <v>586</v>
       </c>
       <c r="B13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C13" s="4">
         <v>33.9</v>
@@ -9224,7 +9242,7 @@
         <v>32.6</v>
       </c>
       <c r="F13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G13" s="4">
         <v>32.9</v>
@@ -9239,7 +9257,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="L13" s="4">
         <v>33.6</v>
@@ -9254,10 +9272,10 @@
         <v>33.9</v>
       </c>
       <c r="P13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Q13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="R13" s="4">
         <v>32.9</v>
@@ -9266,19 +9284,19 @@
         <v>33.4</v>
       </c>
       <c r="T13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="U13" s="4">
         <v>33.6</v>
       </c>
       <c r="V13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="W13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="X13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Y13" s="4">
         <v>31.6</v>
@@ -9293,7 +9311,7 @@
         <v>34.1</v>
       </c>
       <c r="AC13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AD13" s="5">
         <v>33</v>
@@ -9317,10 +9335,10 @@
         <v>33.1</v>
       </c>
       <c r="AK13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AL13" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AM13" s="4">
         <v>34.4</v>
@@ -9329,7 +9347,7 @@
         <v>34.4</v>
       </c>
       <c r="AO13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AP13" s="5">
         <v>34</v>
@@ -9341,13 +9359,13 @@
         <v>33</v>
       </c>
       <c r="AS13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AT13" s="4">
         <v>34.5</v>
       </c>
       <c r="AU13" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="AV13" s="4">
         <v>34.1</v>
@@ -9356,7 +9374,7 @@
         <v>33.4</v>
       </c>
       <c r="AX13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AY13" s="4">
         <v>33.4</v>
@@ -9368,7 +9386,7 @@
         <v>33</v>
       </c>
       <c r="BB13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="BC13" s="5">
         <v>33</v>
@@ -9377,19 +9395,19 @@
         <v>33.4</v>
       </c>
       <c r="BE13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="BF13" s="5">
         <v>35</v>
       </c>
       <c r="BG13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="BH13" s="4">
         <v>33.5</v>
       </c>
       <c r="BI13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="BJ13" s="4">
         <v>33.5</v>
@@ -9413,19 +9431,19 @@
         <v>33</v>
       </c>
       <c r="BQ13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="BR13" s="4">
         <v>34.4</v>
       </c>
       <c r="BS13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="BT13" s="4">
         <v>32.4</v>
       </c>
       <c r="BU13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="BV13" s="4">
         <v>33.6</v>
@@ -9440,7 +9458,7 @@
         <v>34.4</v>
       </c>
       <c r="BZ13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="CA13" s="4">
         <v>33.4</v>
@@ -9458,10 +9476,10 @@
         <v>34.1</v>
       </c>
       <c r="CF13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="CG13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="CH13" s="4">
         <v>33.1</v>
@@ -9473,19 +9491,19 @@
         <v>33.6</v>
       </c>
       <c r="CK13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="CL13" s="4">
         <v>33.1</v>
       </c>
       <c r="CM13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="CN13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="CO13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="CP13" s="4">
         <v>34.4</v>
@@ -9509,19 +9527,19 @@
         <v>34.1</v>
       </c>
       <c r="CW13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="CX13" s="4">
         <v>31.9</v>
       </c>
       <c r="CY13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="CZ13" s="4">
         <v>33.6</v>
       </c>
       <c r="DA13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="DB13" s="4">
         <v>34.5</v>
@@ -9530,25 +9548,25 @@
         <v>34.4</v>
       </c>
       <c r="DD13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="DE13" s="4">
         <v>31.8</v>
       </c>
       <c r="DF13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="DG13" s="4">
         <v>32.9</v>
       </c>
       <c r="DH13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="DI13" s="4">
         <v>32.9</v>
       </c>
       <c r="DJ13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="DK13" s="4">
         <v>33.5</v>
@@ -9563,43 +9581,43 @@
         <v>34.9</v>
       </c>
       <c r="DO13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="DP13" s="4">
         <v>32.5</v>
       </c>
       <c r="DQ13" s="4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="DR13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="DS13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="DT13" s="4">
         <v>33.1</v>
       </c>
       <c r="DU13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="DV13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="DW13" s="4">
         <v>32.1</v>
       </c>
       <c r="DX13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="DY13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="DZ13" s="4">
         <v>32.9</v>
       </c>
       <c r="EA13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="EB13" s="4">
         <v>32.9</v>
@@ -9608,7 +9626,7 @@
         <v>32.5</v>
       </c>
       <c r="ED13" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="EE13" s="4">
         <v>32.5</v>
@@ -9629,7 +9647,7 @@
         <v>33.1</v>
       </c>
       <c r="EK13" s="4">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="EL13" s="4">
         <v>33.1</v>
@@ -9653,7 +9671,7 @@
         <v>34.1</v>
       </c>
       <c r="ES13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="ET13" s="4">
         <v>33.1</v>
@@ -9665,7 +9683,7 @@
         <v>33.5</v>
       </c>
       <c r="EW13" s="4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="EX13" s="4">
         <v>34.5</v>
@@ -9674,10 +9692,10 @@
         <v>35.5</v>
       </c>
       <c r="EZ13" s="4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="FA13" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="FB13" s="4">
         <v>32.6</v>
@@ -9698,16 +9716,16 @@
         <v>33.1</v>
       </c>
       <c r="FH13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="FI13" s="4">
         <v>33.6</v>
       </c>
       <c r="FJ13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="FK13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="FL13" s="5">
         <v>35</v>
@@ -9722,7 +9740,7 @@
         <v>33</v>
       </c>
       <c r="FP13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="FQ13" s="4">
         <v>32.9</v>
@@ -9731,7 +9749,7 @@
         <v>32.4</v>
       </c>
       <c r="FS13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="FT13" s="4">
         <v>32.9</v>
@@ -9740,10 +9758,10 @@
         <v>34.1</v>
       </c>
       <c r="FV13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="FW13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="FX13" s="4">
         <v>33.4</v>
@@ -9758,7 +9776,7 @@
         <v>33.5</v>
       </c>
       <c r="GB13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="GC13" s="4">
         <v>32.6</v>
@@ -9776,28 +9794,28 @@
         <v>33.4</v>
       </c>
       <c r="GH13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="GI13" s="4">
         <v>33.5</v>
       </c>
       <c r="GJ13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="GK13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="GL13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="GM13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="GN13" s="4">
         <v>33.6</v>
       </c>
       <c r="GO13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="GP13" s="4">
         <v>33.1</v>
@@ -9806,10 +9824,10 @@
         <v>33.1</v>
       </c>
       <c r="GR13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="GS13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="GT13" s="4">
         <v>34.1</v>
@@ -9818,7 +9836,7 @@
         <v>34.6</v>
       </c>
       <c r="GV13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="GW13" s="5">
         <v>32</v>
@@ -9854,19 +9872,19 @@
         <v>35</v>
       </c>
       <c r="HH13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="HI13" s="4">
         <v>32.4</v>
       </c>
       <c r="HJ13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="HK13" s="4">
         <v>32.5</v>
       </c>
       <c r="HL13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="HM13" s="4">
         <v>33.1</v>
@@ -9878,16 +9896,16 @@
         <v>32.9</v>
       </c>
       <c r="HP13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="HQ13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="HR13" s="4">
         <v>35.1</v>
       </c>
       <c r="HS13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="HT13" s="5">
         <v>34</v>
@@ -9896,7 +9914,7 @@
         <v>32</v>
       </c>
       <c r="HV13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="HW13" s="5">
         <v>33</v>
@@ -9911,16 +9929,16 @@
         <v>33.1</v>
       </c>
       <c r="IA13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="IB13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="IC13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="ID13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="IE13" s="4">
         <v>33.5</v>
@@ -9941,7 +9959,7 @@
         <v>34.6</v>
       </c>
       <c r="IK13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="IL13" s="4">
         <v>33.6</v>
@@ -9950,16 +9968,16 @@
         <v>33</v>
       </c>
       <c r="IN13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="IO13" s="4">
         <v>34.1</v>
       </c>
       <c r="IP13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="IQ13" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="IR13" s="4">
         <v>32.5</v>
@@ -9968,10 +9986,10 @@
         <v>33.5</v>
       </c>
       <c r="IT13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="IU13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="IV13" s="5">
         <v>34</v>
@@ -9980,10 +9998,10 @@
         <v>33.1</v>
       </c>
       <c r="IX13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="IY13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="IZ13" s="4">
         <v>33.6</v>
@@ -9995,37 +10013,37 @@
         <v>33.5</v>
       </c>
       <c r="JC13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="JD13" s="4">
         <v>32.4</v>
       </c>
       <c r="JE13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="JF13" s="4">
         <v>32.6</v>
       </c>
       <c r="JG13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="JH13" s="4">
         <v>34.1</v>
       </c>
       <c r="JI13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="JJ13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="JK13" s="4">
         <v>33.1</v>
       </c>
       <c r="JL13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="JM13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="JN13" s="4">
         <v>33.4</v>
@@ -10058,10 +10076,10 @@
         <v>32.9</v>
       </c>
       <c r="JX13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="JY13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="JZ13" s="4">
         <v>34.4</v>
@@ -10073,7 +10091,7 @@
         <v>33</v>
       </c>
       <c r="KC13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="KD13" s="4">
         <v>32.6</v>
@@ -10088,19 +10106,19 @@
         <v>33.1</v>
       </c>
       <c r="KH13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="KI13" s="4">
         <v>33.6</v>
       </c>
       <c r="KJ13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="KK13" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="KL13" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="KM13" s="5">
         <v>36</v>
@@ -10115,13 +10133,13 @@
         <v>32.9</v>
       </c>
       <c r="KQ13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="KR13" s="4">
         <v>34.5</v>
       </c>
       <c r="KS13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="KT13" s="5">
         <v>34</v>
@@ -10130,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="KV13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="KW13" s="4">
         <v>35.1</v>
@@ -10139,13 +10157,13 @@
         <v>34.4</v>
       </c>
       <c r="KY13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="KZ13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="LA13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="LB13" s="5">
         <v>33</v>
@@ -10157,19 +10175,19 @@
         <v>33.1</v>
       </c>
       <c r="LE13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="LF13" s="4">
         <v>33.1</v>
       </c>
       <c r="LG13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="LH13" s="4">
         <v>33.9</v>
       </c>
       <c r="LI13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="LJ13" s="4">
         <v>33.6</v>
@@ -10187,7 +10205,7 @@
         <v>32.5</v>
       </c>
       <c r="LO13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="LP13" s="4">
         <v>34.1</v>
@@ -10211,13 +10229,13 @@
         <v>33.5</v>
       </c>
       <c r="LW13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="LX13" s="4">
         <v>32.4</v>
       </c>
       <c r="LY13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="LZ13" s="4">
         <v>32.6</v>
@@ -10226,7 +10244,7 @@
         <v>32.5</v>
       </c>
       <c r="MB13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="MC13" s="4">
         <v>34.1</v>
@@ -10235,7 +10253,7 @@
         <v>32.9</v>
       </c>
       <c r="ME13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="MF13" s="4">
         <v>33.1</v>
@@ -10247,7 +10265,7 @@
         <v>33.6</v>
       </c>
       <c r="MI13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="MJ13" s="4">
         <v>32.5</v>
@@ -10262,31 +10280,31 @@
         <v>32.5</v>
       </c>
       <c r="MN13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="MO13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="MP13" s="4">
         <v>33.9</v>
       </c>
       <c r="MQ13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="MR13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="MS13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="MT13" s="4">
         <v>33.5</v>
       </c>
       <c r="MU13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="MV13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="MW13" s="4">
         <v>31.6</v>
@@ -10319,7 +10337,7 @@
         <v>34.6</v>
       </c>
       <c r="NG13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="NH13" s="4">
         <v>33.1</v>
@@ -10349,7 +10367,7 @@
         <v>33.6</v>
       </c>
       <c r="NQ13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="NR13" s="4">
         <v>34.1</v>
@@ -10370,10 +10388,10 @@
         <v>34</v>
       </c>
       <c r="NX13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="NY13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="NZ13" s="4">
         <v>33.9</v>
@@ -10382,7 +10400,7 @@
         <v>33.5</v>
       </c>
       <c r="OB13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="OC13" s="4">
         <v>34.6</v>
@@ -10391,7 +10409,7 @@
         <v>35</v>
       </c>
       <c r="OE13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="OF13" s="5">
         <v>34</v>
@@ -10403,25 +10421,25 @@
         <v>32</v>
       </c>
       <c r="OI13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="OJ13" s="4">
         <v>32.9</v>
       </c>
       <c r="OK13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="OL13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="OM13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="ON13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="OO13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="OP13" s="4">
         <v>34.5</v>
@@ -10430,76 +10448,76 @@
         <v>32.5</v>
       </c>
       <c r="OR13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="OS13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="OT13" s="4">
         <v>31.6</v>
       </c>
       <c r="OU13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="OV13" s="4">
         <v>34.5</v>
       </c>
       <c r="OW13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="OX13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="OY13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="OZ13" s="4">
         <v>33.6</v>
       </c>
       <c r="PA13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="PB13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="PC13" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="PD13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="PE13" s="4">
         <v>33.1</v>
       </c>
       <c r="PF13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="PG13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="PH13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="PI13" s="4">
         <v>33.6</v>
       </c>
       <c r="PJ13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="PK13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="PL13" s="4">
         <v>33.5</v>
       </c>
       <c r="PM13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="PN13" s="4">
         <v>34.6</v>
       </c>
       <c r="PO13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="PP13" s="5">
         <v>33</v>
@@ -10511,7 +10529,7 @@
         <v>32</v>
       </c>
       <c r="PS13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="PT13" s="4">
         <v>32.6</v>
@@ -10520,25 +10538,25 @@
         <v>32.4</v>
       </c>
       <c r="PV13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="PW13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="PX13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="PY13" s="4">
         <v>33.4</v>
       </c>
       <c r="PZ13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="QA13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="QB13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="QC13" s="4">
         <v>31.4</v>
@@ -10559,7 +10577,7 @@
         <v>33</v>
       </c>
       <c r="QI13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="QJ13" s="5">
         <v>35</v>
@@ -10568,22 +10586,22 @@
         <v>33.6</v>
       </c>
       <c r="QL13" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="QM13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="QN13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="QO13" s="5">
         <v>33</v>
       </c>
       <c r="QP13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="QQ13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="QR13" s="4">
         <v>33.4</v>
@@ -10592,22 +10610,22 @@
         <v>32.4</v>
       </c>
       <c r="QT13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="QU13" s="5">
         <v>33</v>
       </c>
       <c r="QV13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="QW13" s="4">
         <v>32.9</v>
       </c>
       <c r="QX13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="QY13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="QZ13" s="4">
         <v>31.5</v>
@@ -10622,13 +10640,13 @@
         <v>32.6</v>
       </c>
       <c r="RD13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="RE13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="RF13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="RG13" s="5">
         <v>33</v>
@@ -10640,10 +10658,10 @@
         <v>34</v>
       </c>
       <c r="RJ13" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="RK13" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="RL13" s="4">
         <v>34.6</v>
@@ -10655,43 +10673,43 @@
         <v>33</v>
       </c>
       <c r="RO13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="RP13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="RQ13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="RR13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="RS13" s="5">
         <v>33</v>
       </c>
       <c r="RT13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="RU13" s="4">
         <v>32.9</v>
       </c>
       <c r="RV13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="RW13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="RX13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="RY13" s="4">
         <v>31.9</v>
       </c>
       <c r="RZ13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="SA13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="SB13" s="4">
         <v>33.4</v>
@@ -10733,7 +10751,7 @@
         <v>33</v>
       </c>
       <c r="SO13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="SP13" s="4">
         <v>31.9</v>
@@ -10742,19 +10760,19 @@
         <v>33</v>
       </c>
       <c r="SR13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="SS13" s="5">
         <v>34</v>
       </c>
       <c r="ST13" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="SU13" s="5">
         <v>34</v>
       </c>
       <c r="SV13" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="SW13" s="4">
         <v>32.9</v>
@@ -10778,22 +10796,22 @@
         <v>32</v>
       </c>
       <c r="TD13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="TE13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="TF13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="TG13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="TH13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="TI13" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="TJ13" s="4">
         <v>31.6</v>
@@ -10808,7 +10826,7 @@
         <v>32.9</v>
       </c>
       <c r="TN13" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="TO13" s="4">
         <v>33.1</v>
@@ -10820,13 +10838,13 @@
         <v>33.5</v>
       </c>
       <c r="TR13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="TS13" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="TT13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="TU13" s="4">
         <v>31.7</v>
@@ -10865,7 +10883,7 @@
         <v>33</v>
       </c>
       <c r="UG13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="UH13" s="4">
         <v>31.7</v>
@@ -10874,7 +10892,7 @@
         <v>31.9</v>
       </c>
       <c r="UJ13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="UK13" s="4">
         <v>31.9</v>
@@ -10883,16 +10901,16 @@
         <v>32.5</v>
       </c>
       <c r="UM13" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="UN13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="UO13" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="UP13" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="UQ13" s="5">
         <v>33</v>
@@ -10907,7 +10925,7 @@
         <v>31.6</v>
       </c>
       <c r="UU13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="UV13" s="4">
         <v>32.6</v>
@@ -10922,13 +10940,13 @@
         <v>31.7</v>
       </c>
       <c r="UZ13" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="VA13" s="4">
         <v>33.1</v>
       </c>
       <c r="VB13" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="VC13" s="4">
         <v>32.5</v>
@@ -12693,7 +12711,7 @@
         <v>141.4</v>
       </c>
       <c r="G15" s="4">
-        <v>145.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="H15" s="4">
         <v>211.8</v>
@@ -12705,7 +12723,7 @@
         <v>239.6</v>
       </c>
       <c r="K15" s="4">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="L15" s="5">
         <v>175</v>
@@ -12717,7 +12735,7 @@
         <v>119.6</v>
       </c>
       <c r="O15" s="4">
-        <v>312.4</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="P15" s="5">
         <v>177</v>
@@ -12726,7 +12744,7 @@
         <v>205.4</v>
       </c>
       <c r="R15" s="4">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="S15" s="4">
         <v>195.8</v>
@@ -12738,7 +12756,7 @@
         <v>245.8</v>
       </c>
       <c r="V15" s="4">
-        <v>290.4</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="W15" s="4">
         <v>182.4</v>
@@ -12759,13 +12777,13 @@
         <v>78.8</v>
       </c>
       <c r="AC15" s="4">
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="AD15" s="4">
         <v>103.4</v>
       </c>
       <c r="AE15" s="4">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="AF15" s="4">
         <v>233.8</v>
@@ -12837,13 +12855,13 @@
         <v>121.6</v>
       </c>
       <c r="BC15" s="4">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="BD15" s="4">
         <v>182.6</v>
       </c>
       <c r="BE15" s="4">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="BF15" s="4">
         <v>61.2</v>
@@ -12861,7 +12879,7 @@
         <v>371.2</v>
       </c>
       <c r="BK15" s="4">
-        <v>268.6</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="BL15" s="4">
         <v>120.8</v>
@@ -12873,7 +12891,7 @@
         <v>84.2</v>
       </c>
       <c r="BO15" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="BP15" s="5">
         <v>106</v>
@@ -12885,7 +12903,7 @@
         <v>208.6</v>
       </c>
       <c r="BS15" s="4">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="BT15" s="4">
         <v>158.4</v>
@@ -12894,7 +12912,7 @@
         <v>197.6</v>
       </c>
       <c r="BV15" s="4">
-        <v>292.6</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="BW15" s="4">
         <v>290.2</v>
@@ -12906,13 +12924,13 @@
         <v>118.9</v>
       </c>
       <c r="BZ15" s="4">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="CA15" s="4">
         <v>168.6</v>
       </c>
       <c r="CB15" s="4">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="CC15" s="4">
         <v>193.8</v>
@@ -12933,7 +12951,7 @@
         <v>302</v>
       </c>
       <c r="CI15" s="4">
-        <v>72.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="CJ15" s="4">
         <v>87.2</v>
@@ -12963,7 +12981,7 @@
         <v>18.8</v>
       </c>
       <c r="CS15" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="CT15" s="4">
         <v>245.6</v>
@@ -12984,7 +13002,7 @@
         <v>148.6</v>
       </c>
       <c r="CZ15" s="4">
-        <v>71.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="DA15" s="4">
         <v>125.8</v>
@@ -12999,16 +13017,16 @@
         <v>0.2</v>
       </c>
       <c r="DE15" s="4">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="DF15" s="4">
         <v>348.2</v>
       </c>
       <c r="DG15" s="4">
-        <v>292.4</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="DH15" s="4">
-        <v>285.4</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="DI15" s="5">
         <v>257</v>
@@ -13053,7 +13071,7 @@
         <v>119</v>
       </c>
       <c r="DW15" s="4">
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="DX15" s="5">
         <v>53</v>
@@ -13062,10 +13080,10 @@
         <v>292</v>
       </c>
       <c r="DZ15" s="4">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="EA15" s="4">
-        <v>313.4</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="EB15" s="4">
         <v>83.6</v>
@@ -13074,7 +13092,7 @@
         <v>106.1</v>
       </c>
       <c r="ED15" s="4">
-        <v>284.6</v>
+        <v>284.60000000000002</v>
       </c>
       <c r="EE15" s="4">
         <v>377.8</v>
@@ -13086,10 +13104,10 @@
         <v>136.4</v>
       </c>
       <c r="EH15" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="EI15" s="4">
-        <v>76.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="EJ15" s="5">
         <v>213</v>
@@ -13101,13 +13119,13 @@
         <v>217.8</v>
       </c>
       <c r="EM15" s="4">
-        <v>256.6</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="EN15" s="5">
         <v>23</v>
       </c>
       <c r="EO15" s="4">
-        <v>513.2</v>
+        <v>513.20000000000005</v>
       </c>
       <c r="EP15" s="4">
         <v>181.4</v>
@@ -13179,7 +13197,7 @@
         <v>201.8</v>
       </c>
       <c r="FM15" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="FN15" s="4">
         <v>244.2</v>
@@ -13209,13 +13227,13 @@
         <v>87.2</v>
       </c>
       <c r="FW15" s="4">
-        <v>294.1</v>
+        <v>294.10000000000002</v>
       </c>
       <c r="FX15" s="4">
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="FY15" s="4">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="FZ15" s="4">
         <v>468.6</v>
@@ -13233,7 +13251,7 @@
         <v>190.7</v>
       </c>
       <c r="GE15" s="4">
-        <v>141.7</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="GF15" s="5">
         <v>139</v>
@@ -13245,7 +13263,7 @@
         <v>240.2</v>
       </c>
       <c r="GI15" s="4">
-        <v>269.1</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="GJ15" s="4">
         <v>105.5</v>
@@ -13269,7 +13287,7 @@
         <v>127.3</v>
       </c>
       <c r="GQ15" s="4">
-        <v>153.8</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="GR15" s="4">
         <v>236.8</v>
@@ -13323,10 +13341,10 @@
         <v>8.4</v>
       </c>
       <c r="HI15" s="4">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="HJ15" s="4">
-        <v>139.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="HK15" s="4">
         <v>166.2</v>
@@ -13353,7 +13371,7 @@
         <v>57.1</v>
       </c>
       <c r="HS15" s="4">
-        <v>269.4</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="HT15" s="4">
         <v>31.9</v>
@@ -13365,7 +13383,7 @@
         <v>273</v>
       </c>
       <c r="HW15" s="4">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="HX15" s="4">
         <v>351.4</v>
@@ -13446,7 +13464,7 @@
         <v>162</v>
       </c>
       <c r="IX15" s="4">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="IY15" s="4">
         <v>111.3</v>
@@ -13479,7 +13497,7 @@
         <v>120.9</v>
       </c>
       <c r="JI15" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="JJ15" s="4">
         <v>113.5</v>
@@ -13494,7 +13512,7 @@
         <v>96.8</v>
       </c>
       <c r="JN15" s="4">
-        <v>311.6</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="JO15" s="4">
         <v>238.3</v>
@@ -13536,7 +13554,7 @@
         <v>181.4</v>
       </c>
       <c r="KB15" s="4">
-        <v>67.4</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="KC15" s="4">
         <v>193.9</v>
@@ -13581,10 +13599,10 @@
         <v>351.9</v>
       </c>
       <c r="KQ15" s="4">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="KR15" s="4">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="KS15" s="4">
         <v>31.1</v>
@@ -13593,10 +13611,10 @@
         <v>86.6</v>
       </c>
       <c r="KU15" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="KV15" s="4">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="KW15" s="4">
         <v>41.6</v>
@@ -13605,7 +13623,7 @@
         <v>118.4</v>
       </c>
       <c r="KY15" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="KZ15" s="4">
         <v>105.4</v>
@@ -13626,10 +13644,10 @@
         <v>297</v>
       </c>
       <c r="LF15" s="4">
-        <v>258.4</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="LG15" s="4">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="LH15" s="4">
         <v>265.8</v>
@@ -13641,7 +13659,7 @@
         <v>178.2</v>
       </c>
       <c r="LK15" s="4">
-        <v>129.7</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="LL15" s="4">
         <v>180.2</v>
@@ -13746,7 +13764,7 @@
         <v>129.9</v>
       </c>
       <c r="MT15" s="4">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="MU15" s="4">
         <v>250.5</v>
@@ -13770,22 +13788,22 @@
         <v>83.6</v>
       </c>
       <c r="NB15" s="4">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="NC15" s="4">
         <v>290.8</v>
       </c>
       <c r="ND15" s="4">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="NE15" s="4">
         <v>63.1</v>
       </c>
       <c r="NF15" s="4">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="NG15" s="4">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="NH15" s="4">
         <v>62.4</v>
@@ -13809,16 +13827,16 @@
         <v>226.2</v>
       </c>
       <c r="NO15" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="NP15" s="4">
         <v>88.7</v>
       </c>
       <c r="NQ15" s="4">
-        <v>256.4</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="NR15" s="4">
-        <v>134.2</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="NS15" s="4">
         <v>92.4</v>
@@ -13893,7 +13911,7 @@
         <v>198.6</v>
       </c>
       <c r="OQ15" s="4">
-        <v>305.9</v>
+        <v>305.89999999999998</v>
       </c>
       <c r="OR15" s="4">
         <v>52.4</v>
@@ -13914,10 +13932,10 @@
         <v>440.4</v>
       </c>
       <c r="OX15" s="4">
-        <v>80.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="OY15" s="4">
-        <v>305.4</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="OZ15" s="4">
         <v>252.2</v>
@@ -13953,7 +13971,7 @@
         <v>191.9</v>
       </c>
       <c r="PK15" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="PL15" s="4">
         <v>126.6</v>
@@ -13986,7 +14004,7 @@
         <v>396</v>
       </c>
       <c r="PV15" s="4">
-        <v>72.9</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="PW15" s="4">
         <v>109.7</v>
@@ -14025,13 +14043,13 @@
         <v>56.9</v>
       </c>
       <c r="QI15" s="4">
-        <v>131.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="QJ15" s="5">
         <v>37</v>
       </c>
       <c r="QK15" s="4">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="QL15" s="4">
         <v>110.5</v>
@@ -14046,7 +14064,7 @@
         <v>111.1</v>
       </c>
       <c r="QP15" s="4">
-        <v>277.4</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="QQ15" s="4">
         <v>127.7</v>
@@ -14103,13 +14121,13 @@
         <v>110.4</v>
       </c>
       <c r="RI15" s="4">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="RJ15" s="4">
         <v>43.1</v>
       </c>
       <c r="RK15" s="4">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="RL15" s="5">
         <v>34</v>
@@ -14163,7 +14181,7 @@
         <v>78.5</v>
       </c>
       <c r="SC15" s="4">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="SD15" s="4">
         <v>49.5</v>
@@ -14187,7 +14205,7 @@
         <v>176.5</v>
       </c>
       <c r="SK15" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="SL15" s="4">
         <v>226.7</v>
@@ -14205,7 +14223,7 @@
         <v>254</v>
       </c>
       <c r="SQ15" s="4">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="SR15" s="4">
         <v>125.1</v>
@@ -14229,7 +14247,7 @@
         <v>124.8</v>
       </c>
       <c r="SY15" s="4">
-        <v>309.4</v>
+        <v>309.39999999999998</v>
       </c>
       <c r="SZ15" s="5">
         <v>299</v>
@@ -14238,7 +14256,7 @@
         <v>171.6</v>
       </c>
       <c r="TB15" s="4">
-        <v>134.7</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="TC15" s="4">
         <v>206.1</v>
@@ -14250,7 +14268,7 @@
         <v>162.5</v>
       </c>
       <c r="TF15" s="4">
-        <v>282.1</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="TG15" s="4">
         <v>132.9</v>
@@ -14268,13 +14286,13 @@
         <v>357</v>
       </c>
       <c r="TL15" s="4">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="TM15" s="4">
         <v>185.1</v>
       </c>
       <c r="TN15" s="4">
-        <v>129.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="TO15" s="4">
         <v>167.1</v>
@@ -14295,7 +14313,7 @@
         <v>93.1</v>
       </c>
       <c r="TU15" s="4">
-        <v>315.4</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="TV15" s="4">
         <v>199.5</v>
@@ -14322,7 +14340,7 @@
         <v>117.7</v>
       </c>
       <c r="UD15" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="UE15" s="4">
         <v>25.9</v>
@@ -14334,7 +14352,7 @@
         <v>52</v>
       </c>
       <c r="UH15" s="4">
-        <v>303.6</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="UI15" s="4">
         <v>237.1</v>
@@ -14358,7 +14376,7 @@
         <v>138</v>
       </c>
       <c r="UP15" s="4">
-        <v>277.4</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="UQ15" s="4">
         <v>122.5</v>
@@ -14373,7 +14391,7 @@
         <v>126.6</v>
       </c>
       <c r="UU15" s="4">
-        <v>298.4</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="UV15" s="4">
         <v>169.8</v>
@@ -14417,10 +14435,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="4">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E16" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F16" s="4">
         <v>32.4</v>
@@ -14438,7 +14456,7 @@
         <v>58.8</v>
       </c>
       <c r="K16" s="4">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L16" s="4">
         <v>29.6</v>
@@ -14459,7 +14477,7 @@
         <v>63.4</v>
       </c>
       <c r="R16" s="4">
-        <v>71.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="S16" s="5">
         <v>75</v>
@@ -14492,7 +14510,7 @@
         <v>19</v>
       </c>
       <c r="AC16" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AD16" s="4">
         <v>34.6</v>
@@ -14522,13 +14540,13 @@
         <v>74.2</v>
       </c>
       <c r="AM16" s="4">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="AN16" s="4">
         <v>92.2</v>
       </c>
       <c r="AO16" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AP16" s="4">
         <v>3.8</v>
@@ -14552,7 +14570,7 @@
         <v>13.4</v>
       </c>
       <c r="AW16" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AX16" s="4">
         <v>43.8</v>
@@ -14630,10 +14648,10 @@
         <v>73</v>
       </c>
       <c r="BW16" s="4">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="BX16" s="4">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="BY16" s="5">
         <v>34</v>
@@ -14672,7 +14690,7 @@
         <v>28.6</v>
       </c>
       <c r="CK16" s="4">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="CL16" s="4">
         <v>63.2</v>
@@ -14702,10 +14720,10 @@
         <v>48.2</v>
       </c>
       <c r="CU16" s="4">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="CV16" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="CW16" s="4">
         <v>34.6</v>
@@ -14741,7 +14759,7 @@
         <v>44</v>
       </c>
       <c r="DH16" s="4">
-        <v>139.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="DI16" s="4">
         <v>52.6</v>
@@ -14780,7 +14798,7 @@
         <v>22.6</v>
       </c>
       <c r="DU16" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="DV16" s="5">
         <v>31</v>
@@ -14789,7 +14807,7 @@
         <v>35.4</v>
       </c>
       <c r="DX16" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="DY16" s="4">
         <v>79.2</v>
@@ -14810,7 +14828,7 @@
         <v>87.4</v>
       </c>
       <c r="EE16" s="4">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="EF16" s="5">
         <v>54</v>
@@ -14828,7 +14846,7 @@
         <v>82</v>
       </c>
       <c r="EK16" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="EL16" s="4">
         <v>61.8</v>
@@ -14837,7 +14855,7 @@
         <v>54</v>
       </c>
       <c r="EN16" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="EO16" s="4">
         <v>216.2</v>
@@ -14939,7 +14957,7 @@
         <v>42.3</v>
       </c>
       <c r="FV16" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="FW16" s="4">
         <v>48.1</v>
@@ -14984,7 +15002,7 @@
         <v>51.4</v>
       </c>
       <c r="GK16" s="4">
-        <v>143.8</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="GL16" s="5">
         <v>198</v>
@@ -14993,10 +15011,10 @@
         <v>64</v>
       </c>
       <c r="GN16" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="GO16" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="GP16" s="4">
         <v>30.4</v>
@@ -15005,7 +15023,7 @@
         <v>54.8</v>
       </c>
       <c r="GR16" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="GS16" s="4">
         <v>36.6</v>
@@ -15014,19 +15032,19 @@
         <v>43.3</v>
       </c>
       <c r="GU16" s="4">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="GV16" s="4">
         <v>44.5</v>
       </c>
       <c r="GW16" s="4">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="GX16" s="4">
         <v>47.3</v>
       </c>
       <c r="GY16" s="4">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="GZ16" s="4">
         <v>76.2</v>
@@ -15074,16 +15092,16 @@
         <v>111.5</v>
       </c>
       <c r="HO16" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="HP16" s="4">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="HQ16" s="4">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="HR16" s="4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="HS16" s="4">
         <v>122.8</v>
@@ -15107,7 +15125,7 @@
         <v>60</v>
       </c>
       <c r="HZ16" s="4">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="IA16" s="4">
         <v>30.9</v>
@@ -15122,7 +15140,7 @@
         <v>42.9</v>
       </c>
       <c r="IE16" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="IF16" s="4">
         <v>82.2</v>
@@ -15152,7 +15170,7 @@
         <v>45.8</v>
       </c>
       <c r="IO16" s="4">
-        <v>75.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="IP16" s="4">
         <v>39.4</v>
@@ -15191,7 +15209,7 @@
         <v>56.1</v>
       </c>
       <c r="JB16" s="4">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="JC16" s="4">
         <v>41.1</v>
@@ -15209,7 +15227,7 @@
         <v>72</v>
       </c>
       <c r="JH16" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="JI16" s="4">
         <v>25.7</v>
@@ -15224,7 +15242,7 @@
         <v>41.7</v>
       </c>
       <c r="JM16" s="4">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="JN16" s="4">
         <v>87.4</v>
@@ -15239,13 +15257,13 @@
         <v>127.6</v>
       </c>
       <c r="JR16" s="4">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="JS16" s="5">
         <v>39</v>
       </c>
       <c r="JT16" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="JU16" s="4">
         <v>41.5</v>
@@ -15299,7 +15317,7 @@
         <v>83.7</v>
       </c>
       <c r="KL16" s="4">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="KM16" s="4">
         <v>20.9</v>
@@ -15338,16 +15356,16 @@
         <v>44.6</v>
       </c>
       <c r="KY16" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="KZ16" s="4">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="LA16" s="4">
         <v>13.9</v>
       </c>
       <c r="LB16" s="4">
-        <v>72.4</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="LC16" s="4">
         <v>60.5</v>
@@ -15359,7 +15377,7 @@
         <v>66.5</v>
       </c>
       <c r="LF16" s="4">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="LG16" s="4">
         <v>55.3</v>
@@ -15368,7 +15386,7 @@
         <v>94.3</v>
       </c>
       <c r="LI16" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="LJ16" s="4">
         <v>55.7</v>
@@ -15404,22 +15422,22 @@
         <v>45</v>
       </c>
       <c r="LU16" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="LV16" s="4">
-        <v>73.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="LW16" s="4">
         <v>31.1</v>
       </c>
       <c r="LX16" s="4">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="LY16" s="4">
         <v>108.3</v>
       </c>
       <c r="LZ16" s="4">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="MA16" s="4">
         <v>178.3</v>
@@ -15455,7 +15473,7 @@
         <v>17.5</v>
       </c>
       <c r="ML16" s="4">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="MM16" s="4">
         <v>61.3</v>
@@ -15476,7 +15494,7 @@
         <v>29.4</v>
       </c>
       <c r="MS16" s="4">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="MT16" s="4">
         <v>56.7</v>
@@ -15488,7 +15506,7 @@
         <v>27</v>
       </c>
       <c r="MW16" s="4">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="MX16" s="4">
         <v>105.7</v>
@@ -15527,13 +15545,13 @@
         <v>56.2</v>
       </c>
       <c r="NJ16" s="4">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="NK16" s="4">
         <v>75.2</v>
       </c>
       <c r="NL16" s="4">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="NM16" s="4">
         <v>53.6</v>
@@ -15551,16 +15569,16 @@
         <v>44</v>
       </c>
       <c r="NR16" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="NS16" s="4">
         <v>48.6</v>
       </c>
       <c r="NT16" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="NU16" s="4">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="NV16" s="4">
         <v>33.5</v>
@@ -15575,16 +15593,16 @@
         <v>44.5</v>
       </c>
       <c r="NZ16" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="OA16" s="4">
         <v>44.5</v>
       </c>
       <c r="OB16" s="4">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="OC16" s="4">
-        <v>153.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="OD16" s="5">
         <v>12</v>
@@ -15596,7 +15614,7 @@
         <v>6.6</v>
       </c>
       <c r="OG16" s="4">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="OH16" s="4">
         <v>44.2</v>
@@ -15611,16 +15629,16 @@
         <v>102.2</v>
       </c>
       <c r="OL16" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="OM16" s="4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="ON16" s="4">
         <v>45.9</v>
       </c>
       <c r="OO16" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="OP16" s="5">
         <v>39</v>
@@ -15641,7 +15659,7 @@
         <v>111.9</v>
       </c>
       <c r="OV16" s="4">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="OW16" s="4">
         <v>187.3</v>
@@ -15650,10 +15668,10 @@
         <v>19</v>
       </c>
       <c r="OY16" s="4">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="OZ16" s="4">
-        <v>69.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="PA16" s="4">
         <v>76.7</v>
@@ -15662,7 +15680,7 @@
         <v>22.8</v>
       </c>
       <c r="PC16" s="4">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="PD16" s="4">
         <v>46.7</v>
@@ -15692,7 +15710,7 @@
         <v>30.7</v>
       </c>
       <c r="PM16" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="PN16" s="4">
         <v>27.7</v>
@@ -15701,19 +15719,19 @@
         <v>40.9</v>
       </c>
       <c r="PP16" s="4">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="PQ16" s="4">
         <v>127.4</v>
       </c>
       <c r="PR16" s="4">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="PS16" s="4">
         <v>40.5</v>
       </c>
       <c r="PT16" s="4">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="PU16" s="4">
         <v>97.6</v>
@@ -15734,7 +15752,7 @@
         <v>56.4</v>
       </c>
       <c r="QA16" s="4">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="QB16" s="5">
         <v>23</v>
@@ -15746,7 +15764,7 @@
         <v>86.8</v>
       </c>
       <c r="QE16" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="QF16" s="4">
         <v>30.2</v>
@@ -15758,13 +15776,13 @@
         <v>21.4</v>
       </c>
       <c r="QI16" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="QJ16" s="4">
         <v>9.9</v>
       </c>
       <c r="QK16" s="4">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="QL16" s="4">
         <v>29.3</v>
@@ -15803,7 +15821,7 @@
         <v>46</v>
       </c>
       <c r="QX16" s="4">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="QY16" s="4">
         <v>119.4</v>
@@ -15818,10 +15836,10 @@
         <v>112.3</v>
       </c>
       <c r="RC16" s="4">
-        <v>65.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="RD16" s="4">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="RE16" s="4">
         <v>112.9</v>
@@ -15890,10 +15908,10 @@
         <v>79.7</v>
       </c>
       <c r="SA16" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="SB16" s="4">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="SC16" s="5">
         <v>37</v>
@@ -15929,7 +15947,7 @@
         <v>47.1</v>
       </c>
       <c r="SN16" s="4">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="SO16" s="4">
         <v>40.9</v>
@@ -15950,7 +15968,7 @@
         <v>57.8</v>
       </c>
       <c r="SU16" s="4">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="SV16" s="4">
         <v>30.7</v>
@@ -15977,7 +15995,7 @@
         <v>53</v>
       </c>
       <c r="TD16" s="4">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="TE16" s="4">
         <v>43.6</v>
@@ -15989,7 +16007,7 @@
         <v>25.1</v>
       </c>
       <c r="TH16" s="4">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="TI16" s="4">
         <v>26.2</v>
@@ -16013,7 +16031,7 @@
         <v>53.8</v>
       </c>
       <c r="TP16" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="TQ16" s="4">
         <v>29.8</v>
@@ -16043,16 +16061,16 @@
         <v>40.4</v>
       </c>
       <c r="TZ16" s="4">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="UA16" s="4">
         <v>28.5</v>
       </c>
       <c r="UB16" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="UC16" s="4">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="UD16" s="4">
         <v>9.4</v>
@@ -16091,7 +16109,7 @@
         <v>28.1</v>
       </c>
       <c r="UP16" s="4">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="UQ16" s="4">
         <v>51.8</v>
@@ -17910,13 +17928,13 @@
         <v>5.9</v>
       </c>
       <c r="M18" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N18" s="4">
         <v>5.4</v>
       </c>
       <c r="O18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P18" s="4">
         <v>6.2</v>
@@ -17943,7 +17961,7 @@
         <v>7.3</v>
       </c>
       <c r="X18" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y18" s="4">
         <v>4.2</v>
@@ -17979,7 +17997,7 @@
         <v>7.6</v>
       </c>
       <c r="AJ18" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AK18" s="4">
         <v>7.1</v>
@@ -18012,16 +18030,16 @@
         <v>5.9</v>
       </c>
       <c r="AU18" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AV18" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AW18" s="4">
         <v>7.1</v>
       </c>
       <c r="AX18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AY18" s="4">
         <v>3.8</v>
@@ -18039,7 +18057,7 @@
         <v>6.1</v>
       </c>
       <c r="BD18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE18" s="4">
         <v>5.8</v>
@@ -18054,7 +18072,7 @@
         <v>8</v>
       </c>
       <c r="BI18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BJ18" s="4">
         <v>5.6</v>
@@ -18093,13 +18111,13 @@
         <v>4.8</v>
       </c>
       <c r="BV18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BW18" s="4">
         <v>3.5</v>
       </c>
       <c r="BX18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BY18" s="4">
         <v>5.5</v>
@@ -18195,7 +18213,7 @@
         <v>8</v>
       </c>
       <c r="DD18" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="DE18" s="4">
         <v>5.3</v>
@@ -18210,7 +18228,7 @@
         <v>6.3</v>
       </c>
       <c r="DI18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="DJ18" s="4">
         <v>6.1</v>
@@ -18240,7 +18258,7 @@
         <v>3.6</v>
       </c>
       <c r="DS18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="DT18" s="4">
         <v>5.9</v>
@@ -18282,7 +18300,7 @@
         <v>5.3</v>
       </c>
       <c r="EG18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="EH18" s="4">
         <v>6.1</v>
@@ -18300,7 +18318,7 @@
         <v>7.2</v>
       </c>
       <c r="EM18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="EN18" s="4">
         <v>7.5</v>
@@ -18324,10 +18342,10 @@
         <v>5.4</v>
       </c>
       <c r="EU18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="EV18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="EW18" s="4">
         <v>6.5</v>
@@ -18339,7 +18357,7 @@
         <v>6.1</v>
       </c>
       <c r="EZ18" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="FA18" s="4">
         <v>7.1</v>
@@ -18390,13 +18408,13 @@
         <v>4.5</v>
       </c>
       <c r="FQ18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="FR18" s="4">
         <v>5.5</v>
       </c>
       <c r="FS18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="FT18" s="4">
         <v>5.6</v>
@@ -18450,7 +18468,7 @@
         <v>7.6</v>
       </c>
       <c r="GK18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="GL18" s="4">
         <v>3.2</v>
@@ -18492,10 +18510,10 @@
         <v>4.5</v>
       </c>
       <c r="GY18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="GZ18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="HA18" s="4">
         <v>6.2</v>
@@ -18525,13 +18543,13 @@
         <v>6.5</v>
       </c>
       <c r="HJ18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="HK18" s="4">
         <v>5.8</v>
       </c>
       <c r="HL18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="HM18" s="4">
         <v>5.9</v>
@@ -18567,7 +18585,7 @@
         <v>4.2</v>
       </c>
       <c r="HX18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="HY18" s="5">
         <v>5</v>
@@ -18585,7 +18603,7 @@
         <v>5.9</v>
       </c>
       <c r="ID18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="IE18" s="4">
         <v>6.9</v>
@@ -18600,7 +18618,7 @@
         <v>4.8</v>
       </c>
       <c r="II18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="IJ18" s="4">
         <v>6.2</v>
@@ -18645,13 +18663,13 @@
         <v>6.2</v>
       </c>
       <c r="IX18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="IY18" s="4">
         <v>8.1</v>
       </c>
       <c r="IZ18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="JA18" s="5">
         <v>6</v>
@@ -18663,10 +18681,10 @@
         <v>5.4</v>
       </c>
       <c r="JD18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="JE18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="JF18" s="4">
         <v>4.2</v>
@@ -18681,13 +18699,13 @@
         <v>6.2</v>
       </c>
       <c r="JJ18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="JK18" s="4">
         <v>6.5</v>
       </c>
       <c r="JL18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="JM18" s="4">
         <v>6.8</v>
@@ -18705,7 +18723,7 @@
         <v>4</v>
       </c>
       <c r="JR18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="JS18" s="4">
         <v>4.7</v>
@@ -18744,7 +18762,7 @@
         <v>3.1</v>
       </c>
       <c r="KE18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="KF18" s="5">
         <v>5</v>
@@ -18753,10 +18771,10 @@
         <v>4.5</v>
       </c>
       <c r="KH18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="KI18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="KJ18" s="4">
         <v>5.3</v>
@@ -18807,7 +18825,7 @@
         <v>7</v>
       </c>
       <c r="KZ18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="LA18" s="4">
         <v>7.7</v>
@@ -18816,7 +18834,7 @@
         <v>4.5</v>
       </c>
       <c r="LC18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="LD18" s="4">
         <v>4.3</v>
@@ -18861,7 +18879,7 @@
         <v>5.8</v>
       </c>
       <c r="LR18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="LS18" s="4">
         <v>5.2</v>
@@ -18879,7 +18897,7 @@
         <v>5.9</v>
       </c>
       <c r="LX18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="LY18" s="5">
         <v>5</v>
@@ -18966,7 +18984,7 @@
         <v>4.5</v>
       </c>
       <c r="NA18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="NB18" s="4">
         <v>5.7</v>
@@ -19002,7 +19020,7 @@
         <v>4.2</v>
       </c>
       <c r="NM18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="NN18" s="4">
         <v>5.3</v>
@@ -19014,7 +19032,7 @@
         <v>7.1</v>
       </c>
       <c r="NQ18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="NR18" s="4">
         <v>5.8</v>
@@ -19032,13 +19050,13 @@
         <v>5.5</v>
       </c>
       <c r="NW18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="NX18" s="4">
         <v>5.9</v>
       </c>
       <c r="NY18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="NZ18" s="4">
         <v>5.8</v>
@@ -19056,7 +19074,7 @@
         <v>6.3</v>
       </c>
       <c r="OE18" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="OF18" s="4">
         <v>8.9</v>
@@ -19107,13 +19125,13 @@
         <v>3.7</v>
       </c>
       <c r="OV18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="OW18" s="4">
         <v>4.8</v>
       </c>
       <c r="OX18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="OY18" s="5">
         <v>6</v>
@@ -19149,7 +19167,7 @@
         <v>5.4</v>
       </c>
       <c r="PJ18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="PK18" s="4">
         <v>6.7</v>
@@ -19167,7 +19185,7 @@
         <v>6.9</v>
       </c>
       <c r="PP18" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="PQ18" s="5">
         <v>4</v>
@@ -19209,13 +19227,13 @@
         <v>3.9</v>
       </c>
       <c r="QD18" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="QE18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="QF18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="QG18" s="5">
         <v>5</v>
@@ -19242,7 +19260,7 @@
         <v>6.5</v>
       </c>
       <c r="QO18" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="QP18" s="4">
         <v>3.3</v>
@@ -19254,7 +19272,7 @@
         <v>5.2</v>
       </c>
       <c r="QS18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="QT18" s="5">
         <v>6</v>
@@ -19275,10 +19293,10 @@
         <v>5.3</v>
       </c>
       <c r="QZ18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="RA18" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="RB18" s="4">
         <v>2.7</v>
@@ -19311,7 +19329,7 @@
         <v>8.9</v>
       </c>
       <c r="RL18" s="4">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="RM18" s="4">
         <v>4.3</v>
@@ -19344,7 +19362,7 @@
         <v>4.7</v>
       </c>
       <c r="RW18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="RX18" s="4">
         <v>7.6</v>
@@ -19413,7 +19431,7 @@
         <v>6.5</v>
       </c>
       <c r="ST18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="SU18" s="4">
         <v>6.7</v>
@@ -19467,7 +19485,7 @@
         <v>3.8</v>
       </c>
       <c r="TL18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="TM18" s="4">
         <v>4.8</v>
@@ -19506,7 +19524,7 @@
         <v>6</v>
       </c>
       <c r="TY18" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="TZ18" s="4">
         <v>5.2</v>
@@ -19569,13 +19587,13 @@
         <v>7.4</v>
       </c>
       <c r="UT18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="UU18" s="4">
         <v>3.4</v>
       </c>
       <c r="UV18" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="UW18" s="4">
         <v>5.5</v>
@@ -19587,7 +19605,7 @@
         <v>6.1</v>
       </c>
       <c r="UZ18" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="VA18" s="4">
         <v>5.6</v>
@@ -21346,22 +21364,22 @@
         <v>81.2</v>
       </c>
       <c r="C20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D20" s="4">
         <v>78.7</v>
       </c>
       <c r="E20" s="4">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F20" s="4">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="G20" s="4">
         <v>76.8</v>
       </c>
       <c r="H20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="I20" s="4">
         <v>76.5</v>
@@ -21376,7 +21394,7 @@
         <v>80.3</v>
       </c>
       <c r="M20" s="4">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="N20" s="4">
         <v>79.7</v>
@@ -21391,7 +21409,7 @@
         <v>77.3</v>
       </c>
       <c r="R20" s="4">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="S20" s="4">
         <v>76.5</v>
@@ -21403,10 +21421,10 @@
         <v>79.3</v>
       </c>
       <c r="V20" s="4">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="W20" s="4">
-        <v>76.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="X20" s="4">
         <v>73.8</v>
@@ -21415,13 +21433,13 @@
         <v>82.6</v>
       </c>
       <c r="Z20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="AA20" s="4">
         <v>81.7</v>
       </c>
       <c r="AB20" s="4">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AC20" s="5">
         <v>79</v>
@@ -21436,10 +21454,10 @@
         <v>80.2</v>
       </c>
       <c r="AG20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="AH20" s="4">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="AI20" s="4">
         <v>75.2</v>
@@ -21448,7 +21466,7 @@
         <v>76</v>
       </c>
       <c r="AK20" s="4">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AL20" s="4">
         <v>83.9</v>
@@ -21457,13 +21475,13 @@
         <v>79.2</v>
       </c>
       <c r="AN20" s="4">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AO20" s="5">
         <v>73</v>
       </c>
       <c r="AP20" s="4">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="AQ20" s="4">
         <v>75.2</v>
@@ -21475,16 +21493,16 @@
         <v>79.2</v>
       </c>
       <c r="AT20" s="4">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AU20" s="4">
         <v>72.3</v>
       </c>
       <c r="AV20" s="4">
-        <v>74.1</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AW20" s="4">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="AX20" s="4">
         <v>81.5</v>
@@ -21496,7 +21514,7 @@
         <v>79.7</v>
       </c>
       <c r="BA20" s="4">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="BB20" s="5">
         <v>77</v>
@@ -21514,7 +21532,7 @@
         <v>78.5</v>
       </c>
       <c r="BG20" s="4">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="BH20" s="4">
         <v>77.2</v>
@@ -21535,10 +21553,10 @@
         <v>81</v>
       </c>
       <c r="BN20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="BO20" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="BP20" s="4">
         <v>80.2</v>
@@ -21562,13 +21580,13 @@
         <v>72.8</v>
       </c>
       <c r="BW20" s="4">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="BX20" s="5">
         <v>72</v>
       </c>
       <c r="BY20" s="4">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="BZ20" s="5">
         <v>74</v>
@@ -21580,10 +21598,10 @@
         <v>77.7</v>
       </c>
       <c r="CC20" s="4">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="CD20" s="4">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="CE20" s="4">
         <v>74.7</v>
@@ -21592,16 +21610,16 @@
         <v>78.8</v>
       </c>
       <c r="CG20" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="CH20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="CI20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="CJ20" s="4">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="CK20" s="5">
         <v>75</v>
@@ -21610,25 +21628,25 @@
         <v>76.7</v>
       </c>
       <c r="CM20" s="4">
-        <v>74.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="CN20" s="4">
         <v>75.8</v>
       </c>
       <c r="CO20" s="4">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="CP20" s="4">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="CQ20" s="4">
         <v>75.8</v>
       </c>
       <c r="CR20" s="4">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="CS20" s="4">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="CT20" s="4">
         <v>82.6</v>
@@ -21640,7 +21658,7 @@
         <v>77</v>
       </c>
       <c r="CW20" s="4">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="CX20" s="4">
         <v>79.7</v>
@@ -21673,7 +21691,7 @@
         <v>84.6</v>
       </c>
       <c r="DH20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="DI20" s="4">
         <v>81.3</v>
@@ -21682,10 +21700,10 @@
         <v>79</v>
       </c>
       <c r="DK20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="DL20" s="4">
-        <v>74.6</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="DM20" s="4">
         <v>83.1</v>
@@ -21694,7 +21712,7 @@
         <v>82.7</v>
       </c>
       <c r="DO20" s="4">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="DP20" s="4">
         <v>86.9</v>
@@ -21718,7 +21736,7 @@
         <v>79.8</v>
       </c>
       <c r="DW20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="DX20" s="5">
         <v>79</v>
@@ -21769,7 +21787,7 @@
         <v>85.5</v>
       </c>
       <c r="EN20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="EO20" s="4">
         <v>85.8</v>
@@ -21802,7 +21820,7 @@
         <v>84.1</v>
       </c>
       <c r="EY20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="EZ20" s="4">
         <v>77.3</v>
@@ -21844,7 +21862,7 @@
         <v>80.7</v>
       </c>
       <c r="FM20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="FN20" s="4">
         <v>83.7</v>
@@ -21868,7 +21886,7 @@
         <v>81.5</v>
       </c>
       <c r="FU20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="FV20" s="5">
         <v>82</v>
@@ -21925,13 +21943,13 @@
         <v>87.4</v>
       </c>
       <c r="GN20" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="GO20" s="5">
         <v>81</v>
       </c>
       <c r="GP20" s="4">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="GQ20" s="4">
         <v>83.8</v>
@@ -22093,7 +22111,7 @@
         <v>80.8</v>
       </c>
       <c r="IR20" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="IS20" s="4">
         <v>83.6</v>
@@ -22189,7 +22207,7 @@
         <v>82.7</v>
       </c>
       <c r="JX20" s="4">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="JY20" s="4">
         <v>84.4</v>
@@ -22210,7 +22228,7 @@
         <v>88.5</v>
       </c>
       <c r="KE20" s="4">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="KF20" s="4">
         <v>82.3</v>
@@ -22270,7 +22288,7 @@
         <v>82.7</v>
       </c>
       <c r="KY20" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="KZ20" s="4">
         <v>80.8</v>
@@ -22294,7 +22312,7 @@
         <v>83.4</v>
       </c>
       <c r="LG20" s="4">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="LH20" s="4">
         <v>84.3</v>
@@ -22324,7 +22342,7 @@
         <v>82.8</v>
       </c>
       <c r="LQ20" s="4">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="LR20" s="4">
         <v>85.6</v>
@@ -22333,7 +22351,7 @@
         <v>82.6</v>
       </c>
       <c r="LT20" s="4">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="LU20" s="4">
         <v>83.7</v>
@@ -22366,7 +22384,7 @@
         <v>80</v>
       </c>
       <c r="ME20" s="4">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="MF20" s="4">
         <v>83.5</v>
@@ -22396,16 +22414,16 @@
         <v>84.3</v>
       </c>
       <c r="MO20" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="MP20" s="4">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="MQ20" s="4">
         <v>83.2</v>
       </c>
       <c r="MR20" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="MS20" s="4">
         <v>82.9</v>
@@ -22435,7 +22453,7 @@
         <v>82.9</v>
       </c>
       <c r="NB20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="NC20" s="4">
         <v>83.8</v>
@@ -22450,7 +22468,7 @@
         <v>82.4</v>
       </c>
       <c r="NG20" s="4">
-        <v>80.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="NH20" s="4">
         <v>80.5</v>
@@ -22465,7 +22483,7 @@
         <v>86.5</v>
       </c>
       <c r="NL20" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="NM20" s="5">
         <v>83</v>
@@ -22486,10 +22504,10 @@
         <v>84.3</v>
       </c>
       <c r="NS20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="NT20" s="4">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="NU20" s="4">
         <v>84.1</v>
@@ -22516,16 +22534,16 @@
         <v>80.7</v>
       </c>
       <c r="OC20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="OD20" s="4">
         <v>81.2</v>
       </c>
       <c r="OE20" s="4">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="OF20" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="OG20" s="4">
         <v>83.8</v>
@@ -22567,7 +22585,7 @@
         <v>84.1</v>
       </c>
       <c r="OT20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="OU20" s="4">
         <v>86.8</v>
@@ -22585,7 +22603,7 @@
         <v>84</v>
       </c>
       <c r="OZ20" s="4">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="PA20" s="4">
         <v>82.7</v>
@@ -22654,7 +22672,7 @@
         <v>77.3</v>
       </c>
       <c r="PW20" s="4">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="PX20" s="4">
         <v>82.5</v>
@@ -22669,7 +22687,7 @@
         <v>86.6</v>
       </c>
       <c r="QB20" s="4">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="QC20" s="4">
         <v>83.9</v>
@@ -22687,13 +22705,13 @@
         <v>83.1</v>
       </c>
       <c r="QH20" s="4">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="QI20" s="4">
         <v>83.1</v>
       </c>
       <c r="QJ20" s="4">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="QK20" s="4">
         <v>83.4</v>
@@ -22771,13 +22789,13 @@
         <v>86.4</v>
       </c>
       <c r="RJ20" s="4">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="RK20" s="4">
         <v>80.3</v>
       </c>
       <c r="RL20" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="RM20" s="4">
         <v>87.4</v>
@@ -22831,10 +22849,10 @@
         <v>79</v>
       </c>
       <c r="SD20" s="4">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="SE20" s="4">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="SF20" s="5">
         <v>81</v>
@@ -22987,7 +23005,7 @@
         <v>83.3</v>
       </c>
       <c r="UD20" s="4">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="UE20" s="5">
         <v>82</v>
@@ -23029,10 +23047,10 @@
         <v>83.4</v>
       </c>
       <c r="UR20" s="4">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="US20" s="4">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="UT20" s="4">
         <v>87.4</v>
@@ -23071,52 +23089,52 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:577" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:577" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:577" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>604</v>
       </c>
@@ -23143,6 +23161,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>